--- a/PLANTILLA CON DATOS PRUEBA 10.xlsx
+++ b/PLANTILLA CON DATOS PRUEBA 10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\registrolagranja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\registrolagranja\Documents\CertiGranja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E2F1F4-E200-4A38-BAC6-AE58679F3611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F52775-7DE6-47AA-BAB3-78A983701399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="4500" windowWidth="15690" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>TIPO DE DOCUMENTO</t>
   </si>
@@ -52,24 +52,6 @@
     <t>MARLON MOSQUERA</t>
   </si>
   <si>
-    <t xml:space="preserve">GERMAN LOPEZ </t>
-  </si>
-  <si>
-    <t>DICIEMBRE</t>
-  </si>
-  <si>
-    <t>CARMEN ROSA GARCIA BRAVO</t>
-  </si>
-  <si>
-    <t>AGOSTO</t>
-  </si>
-  <si>
-    <t>JAIME LOPEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
     <t>SARA DIAZ RIVERA</t>
   </si>
   <si>
@@ -77,18 +59,6 @@
   </si>
   <si>
     <t>SEPTIEMBRE</t>
-  </si>
-  <si>
-    <t>AYDEE DE JESUS GIRALDO MENDEZ</t>
-  </si>
-  <si>
-    <t>CARMEN BASTO MORALES</t>
-  </si>
-  <si>
-    <t>NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>ANA DE JESUS SUAREZ NUÑEZ</t>
   </si>
 </sst>
 </file>
@@ -155,12 +125,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -465,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,20 +511,20 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>5813300</v>
+      <c r="B4" s="2">
+        <v>38222588</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>1961</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,139 +532,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>38237961</v>
+        <v>41587804</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6000297</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>38222588</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>41587804</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
         <v>1974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>38215199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>65496347</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>28953763</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>1973</v>
       </c>
     </row>
   </sheetData>
